--- a/biology/Zoologie/Grenouille_des_marais/Grenouille_des_marais.xlsx
+++ b/biology/Zoologie/Grenouille_des_marais/Grenouille_des_marais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lithobates palustris
-La Grenouille des marais, Lithobates palustris, est une espèce d'amphibiens de la famille des Ranidae[1].
+La Grenouille des marais, Lithobates palustris, est une espèce d'amphibiens de la famille des Ranidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La grenouille des marais se rencontre dans l'est de l'Amérique du Nord[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La grenouille des marais se rencontre dans l'est de l'Amérique du Nord, :
 dans le sud-est du Canada ;
 dans l'est des États-Unis.
 </t>
@@ -545,7 +559,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>LeConte, 1825 : Remarks on the American species of the GENERA HYLA and RANA. Annals of the Lyceum of Natural History of New-York, vol. 1, p. 278–282  (texte intégral).</t>
         </is>
